--- a/doc/01_勉強会/01_勉強会資料/20180823_勉強会/02.資料/スマホアプリ機能分担表.xlsx
+++ b/doc/01_勉強会/01_勉強会資料/20180823_勉強会/02.資料/スマホアプリ機能分担表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$66</definedName>
   </definedNames>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>【スマホアプリ機能分担表】</t>
     <rPh sb="7" eb="9">
@@ -301,6 +301,28 @@
     <t>3名</t>
     <rPh sb="1" eb="2">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・担当している機能が終わり次第、他の手伝いをしてほしい。</t>
+    <rPh sb="1" eb="3">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テツダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -415,17 +437,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -730,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O34"/>
+  <dimension ref="B3:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,335 +765,324 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="11"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -1086,8 +1097,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1102,46 +1113,46 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="9"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="E27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="11"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -1156,8 +1167,8 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -1172,8 +1183,8 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1182,54 +1193,52 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="9"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="11"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1239,15 +1248,15 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -1256,41 +1265,59 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
     </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M17:O21"/>
-    <mergeCell ref="M22:O25"/>
-    <mergeCell ref="M26:O30"/>
-    <mergeCell ref="M31:O34"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O12"/>
-    <mergeCell ref="M13:O16"/>
-    <mergeCell ref="B22:D25"/>
-    <mergeCell ref="B26:D30"/>
-    <mergeCell ref="B31:D34"/>
-    <mergeCell ref="B7:D12"/>
-    <mergeCell ref="K7:L12"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="K17:L21"/>
-    <mergeCell ref="K22:L25"/>
-    <mergeCell ref="K26:L30"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="B13:D16"/>
-    <mergeCell ref="B17:D21"/>
+    <mergeCell ref="K23:L26"/>
+    <mergeCell ref="K27:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="B18:D22"/>
+    <mergeCell ref="M18:O22"/>
+    <mergeCell ref="M23:O26"/>
+    <mergeCell ref="M27:O31"/>
+    <mergeCell ref="M32:O35"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O13"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="B23:D26"/>
+    <mergeCell ref="B27:D31"/>
+    <mergeCell ref="B32:D35"/>
+    <mergeCell ref="B8:D13"/>
+    <mergeCell ref="K8:L13"/>
+    <mergeCell ref="K14:L17"/>
+    <mergeCell ref="K18:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
